--- a/biology/Médecine/Prehospital_Trauma_Life_Support/Prehospital_Trauma_Life_Support.xlsx
+++ b/biology/Médecine/Prehospital_Trauma_Life_Support/Prehospital_Trauma_Life_Support.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Prehospital Trauma Life Support (PHTLS) est une technique de premiers secours destinée à la prise en charge de victimes ayant subi un traumatisme physique. Créé en 1983 en reprenant les fondements de l'Advanced trauma life support, le PHTLS est actuellement enseigné dans plus de cinquante pays et est une référence internationale.
 En France, de nombreux ambulanciers, infirmiers, médecins, sapeurs pompiers ou secouristes ont été formés depuis 2002 par l'association Life Support France. Un des principes fondateurs de la formation repose sur le travail en équipe pluridisciplinaire.
@@ -512,7 +524,9 @@
           <t>Principes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Traiter en premier les atteintes qui tuent en premier
 Évaluation rapide et systématisée (A-B-C-D-E)
@@ -546,7 +560,9 @@
           <t>Contenu et déroulement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Afin de participer à la formation PHTLS, les apprenants devront assimiler le manuel de formation qui est actualisé tous les 4 ans. La formation laisse une large part aux ateliers pratiques et aux scénarios pédagogiques. Les thèmes abordés pendant les 2 jours de formation sont les suivants :
 évaluation des victimes traumatisées ;
@@ -586,7 +602,9 @@
           <t>Validité et certification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La certification au PHTLS est internationale et reconnue pour une durée de quatre ans. À l'issue de cette durée, un recyclage d'une journée est nécessaire afin de revalider le titre pour quatre ans.
 </t>
@@ -617,7 +635,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">NAEMT, PHTLS - secours et soins préhospitaliers aux traumatisés, Paris, Elsevier, coll. « Life Support France », 09/2012  (ISBN 9782294714368).
 Site internet de l'organisation Life Support France.
